--- a/SpMVC_005_RentBook/document/도서관리-테이블명세.xlsx
+++ b/SpMVC_005_RentBook/document/도서관리-테이블명세.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505225\Documents\workspace\springMVC_oneday_book\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505225\Documents\workspace\springMVC\SpMVC_005_RentBook\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54E2B3C-F1D2-4798-A7B2-2EAFE72EB53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F18D40-5161-4F36-AA6E-8AC904E3EE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11970" yWindow="1125" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="도서정보" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="90">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -205,10 +205,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TBL_USERS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MySQL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -237,22 +233,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>U_CODE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>U_NAME</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>U_TEL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>U_ADDR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TBL_RENT_BOOK</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -285,10 +265,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>문자열(30)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>문자열(10)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -313,10 +289,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>RENT_UCODE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>RENT_RETURN_YN</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -345,10 +317,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR(30)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>INT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -373,27 +341,50 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>아이디</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>U_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(50)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PASSWORD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
+    <t>TBL_MEMBERS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_CODE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_NAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_TEL</t>
+  </si>
+  <si>
+    <t>M_ADDR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(15)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(15)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(13)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(13)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대여금액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RENT_PRICE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RENT_MCODE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1296,7 +1287,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2020,7 +2011,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -2055,7 +2046,7 @@
         <v>36</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
@@ -2080,7 +2071,7 @@
         <v>37</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>42</v>
@@ -2105,7 +2096,7 @@
         <v>39</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>42</v>
@@ -2130,7 +2121,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -2153,7 +2144,7 @@
         <v>40</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>42</v>
@@ -2178,7 +2169,7 @@
         <v>41</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -2198,10 +2189,10 @@
         <v>35</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>42</v>
@@ -2510,8 +2501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2453FE30-DBD3-4DB5-836B-0633D2C57691}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3167,7 +3158,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>14</v>
@@ -3190,7 +3181,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
@@ -3209,7 +3200,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
@@ -3261,16 +3252,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
@@ -3286,16 +3277,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>42</v>
@@ -3311,18 +3302,20 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -3334,16 +3327,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -3356,21 +3349,11 @@
       <c r="B10" s="9">
         <v>5</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
@@ -3381,21 +3364,11 @@
       <c r="B11" s="9">
         <v>6</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>42</v>
-      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -3697,12 +3670,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3715,8 +3688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDE3978-2510-456C-A141-C8FBA1CD7CBB}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4372,7 +4345,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>14</v>
@@ -4395,7 +4368,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
@@ -4414,7 +4387,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
@@ -4466,28 +4439,28 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
         <v>43</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="14" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -4495,16 +4468,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>42</v>
@@ -4520,16 +4493,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>42</v>
@@ -4548,13 +4521,13 @@
         <v>26</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>42</v>
@@ -4570,16 +4543,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>42</v>
@@ -4595,16 +4568,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -4612,7 +4585,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="15" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4620,16 +4593,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="10"/>
@@ -4637,17 +4610,25 @@
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="15" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9">
         <v>8</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="C13" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -4920,12 +4901,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
